--- a/src/test/resources/SkillRary TestData.xlsx
+++ b/src/test/resources/SkillRary TestData.xlsx
@@ -122,7 +122,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,13 +134,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -585,146 +578,146 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -813,8 +806,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A11:E17" totalsRowShown="0">
-  <autoFilter ref="A11:E17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A10:E16" totalsRowShown="0">
+  <autoFilter ref="A10:E16"/>
   <tableColumns count="5">
     <tableColumn id="1" name="TC_ID"/>
     <tableColumn id="2" name="TestName"/>
@@ -827,8 +820,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A19:E21" totalsRowShown="0">
-  <autoFilter ref="A19:E21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A17:E19" totalsRowShown="0">
+  <autoFilter ref="A17:E19"/>
   <tableColumns count="5">
     <tableColumn id="1" name="TC_ID"/>
     <tableColumn id="2" name="TestName"/>
@@ -1098,10 +1091,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A17" sqref="A17:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
@@ -1195,118 +1188,118 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
       <c r="C12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="3:4">
       <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1500</v>
       </c>
     </row>
     <row r="14" spans="3:4">
       <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1500</v>
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="3:4">
       <c r="C15" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
       <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4">
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="1"/>
+      <c r="D19" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId4" display="master@gmail.com"/>
     <hyperlink ref="D3" r:id="rId5" display="mastertheblaster"/>
-    <hyperlink ref="D12" r:id="rId6" display="Selenium"/>
-    <hyperlink ref="D13" r:id="rId5" display="Testing"/>
-    <hyperlink ref="D20" r:id="rId6" display="Testing"/>
+    <hyperlink ref="D11" r:id="rId6" display="Selenium"/>
+    <hyperlink ref="D12" r:id="rId5" display="Testing"/>
+    <hyperlink ref="D18" r:id="rId6" display="Testing"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
